--- a/src/main/webapp/WEB-INF/public/class.xlsx
+++ b/src/main/webapp/WEB-INF/public/class.xlsx
@@ -466,7 +466,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -497,7 +497,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>2001001</v>
@@ -511,7 +511,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>2001001</v>
@@ -525,7 +525,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>2001001</v>
@@ -539,7 +539,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>2001001</v>
@@ -553,7 +553,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>2001002</v>
@@ -567,7 +567,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>2001002</v>
@@ -581,7 +581,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>2001003</v>
@@ -595,7 +595,7 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>2001001</v>
@@ -609,7 +609,7 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>2001001</v>
@@ -623,7 +623,7 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>2001001</v>
@@ -637,7 +637,7 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>2001002</v>
@@ -651,7 +651,7 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>2001002</v>
@@ -665,7 +665,7 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>2001003</v>
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>2001003</v>
@@ -693,7 +693,7 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>2001001</v>
@@ -707,7 +707,7 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>2001001</v>
@@ -721,7 +721,7 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>2001001</v>
@@ -735,7 +735,7 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>2001001</v>
@@ -749,7 +749,7 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>2001002</v>
@@ -763,7 +763,7 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>2001002</v>
@@ -777,7 +777,7 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>2001003</v>
@@ -791,7 +791,7 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>2001003</v>

--- a/src/main/webapp/WEB-INF/public/class.xlsx
+++ b/src/main/webapp/WEB-INF/public/class.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="12060" windowHeight="5055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -465,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -497,7 +498,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>2001001</v>
@@ -511,7 +512,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>2001001</v>
@@ -525,7 +526,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>2001001</v>
@@ -539,7 +540,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>2001001</v>
@@ -581,7 +582,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>2001003</v>
@@ -595,7 +596,7 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>2001001</v>
@@ -609,7 +610,7 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>2001001</v>
@@ -623,7 +624,7 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>2001001</v>
@@ -665,7 +666,7 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>2001003</v>
@@ -679,7 +680,7 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <v>2001003</v>
@@ -693,7 +694,7 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>2001001</v>
@@ -707,7 +708,7 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>2001001</v>
@@ -721,7 +722,7 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>2001001</v>
@@ -735,7 +736,7 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>2001001</v>
@@ -777,7 +778,7 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>2001003</v>
@@ -791,7 +792,7 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>2001003</v>
